--- a/川﨑美琴.xlsx
+++ b/川﨑美琴.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\ProductionWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\01,PersonalProduction\ProductionWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6992E756-C0F6-4D89-8A74-1FDB581F0EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981C884-21AE-401E-9162-83F77C2A2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15870" windowHeight="11295" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="2730" yWindow="750" windowWidth="15345" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="コピー元" sheetId="1" r:id="rId1"/>
+    <sheet name="1作品目" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -105,12 +104,176 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">製作期間：5/16～5/30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※以降、挿入で増やしていってください。</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>セイサクキカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの描画</t>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵×4の描画</t>
+    <rPh sb="0" eb="2">
+      <t>テキカケル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの描画</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ内移動幅</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イドウハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が倒れてくる動作</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明シーン</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン切り替え</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間作成</t>
+    <rPh sb="0" eb="6">
+      <t>セイゲンジカンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始カウントダウン</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/16~5/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの幅決め(仮描画)</t>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カリビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +299,14 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -189,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +393,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,21 +723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586594B2-02F1-43D3-8FC1-4BC02D3EB21B}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="87.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -573,7 +760,7 @@
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
@@ -614,35 +801,164 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12">
+        <v>45428</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45434</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B1048576" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -766,6 +1082,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1000,27 +1336,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1037,23 +1372,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/川﨑美琴.xlsx
+++ b/川﨑美琴.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\01,PersonalProduction\ProductionWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7981C884-21AE-401E-9162-83F77C2A2C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E38F8D8-9EA9-4E61-B54C-4F41D8F7497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="750" windowWidth="15345" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-135" yWindow="30" windowWidth="15210" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="1作品目" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -727,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1082,26 +1081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1336,10 +1315,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1356,20 +1366,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/川﨑美琴.xlsx
+++ b/川﨑美琴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\01,PersonalProduction\ProductionWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E38F8D8-9EA9-4E61-B54C-4F41D8F7497E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C300A9-5602-4251-A754-73D20602324F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="30" windowWidth="15210" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15210" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="1作品目" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -104,8 +104,149 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>プレイヤーの描画</t>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵×4の描画</t>
+    <rPh sb="0" eb="2">
+      <t>テキカケル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの描画</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ内移動幅</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イドウハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が倒れてくる動作</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明シーン</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン切り替え</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間作成</t>
+    <rPh sb="0" eb="6">
+      <t>セイゲンジカンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始カウントダウン</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/16~5/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの幅決め(仮描画)</t>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カリビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景描画</t>
+    <rPh sb="0" eb="4">
+      <t>ハイケイビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">製作期間：5/16～5/30
+      <t xml:space="preserve">製作期間：5/16～6/8
 </t>
     </r>
     <r>
@@ -122,148 +263,14 @@
     <rPh sb="0" eb="4">
       <t>セイサクキカン</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="15" eb="17">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="18" eb="20">
       <t>ソウニュウ</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="21" eb="22">
       <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの描画</t>
-    <rPh sb="6" eb="8">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵×4の描画</t>
-    <rPh sb="0" eb="2">
-      <t>テキカケル</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージの描画</t>
-    <rPh sb="5" eb="7">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの当たり判定</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ内移動幅</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>イドウハバ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵が倒れてくる動作</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明シーン</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームクリアシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームオーバーシーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーン切り替え</t>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制限時間作成</t>
-    <rPh sb="0" eb="6">
-      <t>セイゲンジカンサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始カウントダウン</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/16~5/23</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージの幅決め(仮描画)</t>
-    <rPh sb="5" eb="6">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カリビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -725,8 +732,8 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -737,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -759,7 +766,7 @@
     <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
@@ -801,7 +808,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="12">
         <v>45428</v>
@@ -810,7 +817,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13">
         <v>45434</v>
@@ -819,7 +826,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="12">
         <v>45432</v>
@@ -827,23 +834,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="15">
         <v>45434</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
       <c r="B10" s="15">
         <v>45435</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12">
         <v>45429</v>
@@ -851,7 +855,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="15">
         <v>45435</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15">
         <v>45432</v>
@@ -867,94 +871,107 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="B16" s="12">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="15">
         <v>45433</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="15">
         <v>45433</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="15">
         <v>45433</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="15">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I45" s="5"/>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B1048576" s="15"/>
@@ -1081,6 +1098,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1315,27 +1352,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1352,23 +1388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/川﨑美琴.xlsx
+++ b/川﨑美琴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347059\Documents\川﨑美琴\Git&amp;gitHub\01,PersonalProduction\ProductionWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\01,PersonalProduction\ProductionWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C300A9-5602-4251-A754-73D20602324F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B7746A-28CC-440B-8268-F1878AE999F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15210" windowHeight="15450" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
   <sheets>
     <sheet name="1作品目" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -252,25 +243,119 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>※以降、挿入で増やしていってください。</t>
+      <t>予定より大幅にずれているので修正必須</t>
     </r>
     <rPh sb="0" eb="4">
       <t>セイサクキカン</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>イコウ</t>
+    <rPh sb="14" eb="16">
+      <t>ヨテイ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>ソウニュウ</t>
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャートを作るうえでできていなかった点</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
     </rPh>
     <rPh sb="21" eb="22">
-      <t>フ</t>
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プロトタイプ/α版で最低限のラインを見誤っていたこと</t>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミアヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・作成の順番を間違えていたこと
+(先に作らないといけない個所を後に設定していた)</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲の描画まで済み</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体目範囲の描画まで済み</t>
+    <rPh sb="0" eb="2">
+      <t>イッタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +399,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -406,14 +499,14 @@
     <xf numFmtId="56" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,20 +822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586594B2-02F1-43D3-8FC1-4BC02D3EB21B}">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="49.25" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.296875" customWidth="1"/>
+    <col min="11" max="11" width="52.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -763,7 +858,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
         <v>23</v>
@@ -780,7 +875,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,182 +896,209 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="12">
         <v>45428</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12">
+        <v>45432</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+      <c r="K8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13">
+      <c r="D13" s="13">
         <v>45434</v>
       </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45434</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13">
+        <v>45433</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="13">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13">
         <v>45432</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="15">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="15">
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="13">
         <v>45435</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12">
-        <v>45429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15">
-        <v>45435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15">
-        <v>45432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12">
-        <v>45436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="15">
-        <v>45433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="H37" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.45">
       <c r="I45" s="5"/>
     </row>
-    <row r="1048576" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1048576" s="15"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E18:E23"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -991,12 +1113,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="61.2" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1139,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -1034,7 +1156,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,39 +1177,39 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
@@ -1098,26 +1220,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -1352,10 +1454,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1372,20 +1505,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>